--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T15:48:53+01:00</t>
+    <t>2025-03-26T13:23:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:23:18+01:00</t>
+    <t>2025-03-26T13:37:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T13:37:22+01:00</t>
+    <t>2025-04-15T09:45:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dies ist das DocumentReference für Einwilligungsprofil für das Forschungsprojekt und die Videokonsultation</t>
+    <t>This is the Document Reference profile for the consent profile of the Forschungsvorhaben and Videosprechstunde</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T09:45:28+02:00</t>
+    <t>2025-04-16T11:15:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T11:15:21+02:00</t>
+    <t>2025-04-16T13:27:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T13:27:07+02:00</t>
+    <t>2025-05-10T09:33:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1972,17 +1972,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1991,29 +1991,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.83984375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.09765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.64453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.6875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="81.69140625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="155.44140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="70.46875" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="134.0859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-10T09:33:17+02:00</t>
+    <t>2025-05-12T15:27:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:27:13+02:00</t>
+    <t>2025-05-12T15:33:04+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T15:33:04+02:00</t>
+    <t>2025-05-14T14:21:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T14:21:32+02:00</t>
+    <t>2025-06-12T14:08:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://utn/consentresource.com/StructureDefinition/utn-consent-documentreference-id</t>
+    <t>https://www.utn-num.de/fhir/StructureDefinition/utn-consent-documentreference-id</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -334,17 +334,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
@@ -364,9 +357,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DocumentReference.language</t>
   </si>
   <si>
@@ -444,6 +434,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.extension</t>
   </si>
   <si>
@@ -464,6 +457,291 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>current | superseded | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of this document reference.</t>
+  </si>
+  <si>
+    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
+This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the document reference.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>TXA-19</t>
+  </si>
+  <si>
+    <t>DocumentEntry.availabilityStatus</t>
+  </si>
+  <si>
+    <t>DocumentReference.docStatus</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the underlying document.</t>
+  </si>
+  <si>
+    <t>The document that is pointed to might be in various lifecycle states.</t>
+  </si>
+  <si>
+    <t>Status of the underlying document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>TXA-17</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
+  </si>
+  <si>
+    <t>Precise type of clinical document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/code/@code 
+The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>TXA-2</t>
+  </si>
+  <si>
+    <t>DocumentEntry.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claxs
+</t>
+  </si>
+  <si>
+    <t>Categorization of document</t>
+  </si>
+  <si>
+    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
+  </si>
+  <si>
+    <t>DocumentEntry.class</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/Patient)
+</t>
+  </si>
+  <si>
+    <t>Who/what is the subject of the document</t>
+  </si>
+  <si>
+    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/recordTarget/</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
+  </si>
+  <si>
+    <t>DocumentEntry.patientId</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -474,318 +752,26 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>current | superseded | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of this document reference.</t>
-  </si>
-  <si>
-    <t>This is the status of the DocumentReference object, which might be independent from the docStatus element.
-This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the document reference.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseDocument", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>TXA-19</t>
-  </si>
-  <si>
-    <t>DocumentEntry.availabilityStatus</t>
-  </si>
-  <si>
-    <t>DocumentReference.docStatus</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the underlying document.</t>
-  </si>
-  <si>
-    <t>The document that is pointed to might be in various lifecycle states.</t>
-  </si>
-  <si>
-    <t>Status of the underlying document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>TXA-17</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Kind of document (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/code/@code 
-The typeCode should be mapped from the ClinicalDocument/code element to a set of document type codes configured in the affinity domain. One suggested coding system to use for typeCode is LOINC, in which case the mapping step can be omitted.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>TXA-2</t>
-  </si>
-  <si>
-    <t>DocumentEntry.type</t>
-  </si>
-  <si>
-    <t>DocumentReference.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claxs
-</t>
-  </si>
-  <si>
-    <t>Categorization of document</t>
-  </si>
-  <si>
-    <t>A categorization for the type of document referenced - helps for indexing and searching. This may be implied by or derived from the code specified in the DocumentReference.type.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>DocumentEntry.class</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.de/ConsentManagement/StructureDefinition/Patient)
-</t>
-  </si>
-  <si>
-    <t>Who/what is the subject of the document</t>
-  </si>
-  <si>
-    <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/recordTarget/</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (No standard way to define a Practitioner or Group subject in HL7 v2 MDM message)</t>
-  </si>
-  <si>
-    <t>DocumentEntry.patientId</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
   </si>
   <si>
     <t>DocumentReference.subject.type</t>
@@ -834,9 +820,6 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>DocumentReference.subject.display</t>
   </si>
   <si>
@@ -1167,13 +1150,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1205,9 +1181,6 @@
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
@@ -1426,9 +1399,6 @@
     <t>derived from the IHE Profile or Implementation Guide templateID</t>
   </si>
   <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>DocumentEntry.formatCode</t>
   </si>
   <si>
@@ -1519,14 +1489,6 @@
   </si>
   <si>
     <t>The time period over which the service that is described by the document was provided.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Composition.event.period</t>
@@ -1542,9 +1504,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1555,9 +1514,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>XDS Facility Type.</t>
@@ -2487,11 +2443,11 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
@@ -2499,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>20</v>
@@ -2516,10 +2472,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2542,16 +2498,16 @@
         <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2601,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -2610,11 +2566,11 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
@@ -2622,7 +2578,7 @@
         <v>20</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>20</v>
@@ -2639,10 +2595,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2665,16 +2621,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2700,31 +2656,31 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -2733,11 +2689,11 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
@@ -2745,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>20</v>
@@ -2762,14 +2718,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2788,16 +2744,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2847,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -2856,11 +2812,11 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
@@ -2868,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>20</v>
@@ -2885,14 +2841,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2911,16 +2867,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2970,7 +2926,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2991,7 +2947,7 @@
         <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>20</v>
@@ -3008,14 +2964,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3034,16 +2990,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3081,19 +3037,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3102,10 +3058,10 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3114,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>20</v>
@@ -3131,14 +3087,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3157,19 +3113,19 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3206,19 +3162,19 @@
         <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3227,10 +3183,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3239,7 +3195,7 @@
         <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>20</v>
@@ -3256,10 +3212,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3282,19 +3238,19 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3343,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3352,39 +3308,39 @@
         <v>92</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3407,13 +3363,13 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3464,7 +3420,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3473,39 +3429,39 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3528,16 +3484,16 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3563,13 +3519,13 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -3587,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>92</v>
@@ -3596,39 +3552,39 @@
         <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3651,16 +3607,16 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3686,13 +3642,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3710,7 +3666,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3719,28 +3675,28 @@
         <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>20</v>
@@ -3748,10 +3704,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3774,16 +3730,16 @@
         <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3809,13 +3765,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3833,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3842,43 +3798,43 @@
         <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AQ15" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3897,16 +3853,16 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3932,13 +3888,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3956,7 +3912,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3965,39 +3921,39 @@
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4020,17 +3976,15 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4079,7 +4033,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4088,39 +4042,39 @@
         <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4143,13 +4097,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4200,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4221,7 +4175,7 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -4238,14 +4192,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4264,16 +4218,16 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4311,19 +4265,19 @@
         <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4332,10 +4286,10 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
@@ -4344,7 +4298,7 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4361,10 +4315,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4387,16 +4341,16 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4446,7 +4400,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4455,10 +4409,10 @@
         <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -4467,7 +4421,7 @@
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>20</v>
@@ -4484,10 +4438,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4510,16 +4464,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4545,13 +4499,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4569,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4578,11 +4532,11 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4590,7 +4544,7 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>20</v>
@@ -4607,10 +4561,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4633,16 +4587,16 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4692,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4701,11 +4655,11 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4713,7 +4667,7 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4722,7 +4676,7 @@
         <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>20</v>
@@ -4730,10 +4684,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4756,16 +4710,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4815,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4824,11 +4778,11 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4836,7 +4790,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4853,14 +4807,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4879,16 +4833,16 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4938,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4947,25 +4901,25 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4976,10 +4930,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5002,16 +4956,16 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5061,7 +5015,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5070,39 +5024,39 @@
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5125,16 +5079,16 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5184,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5193,39 +5147,39 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AQ26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5248,16 +5202,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5307,7 +5261,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5316,19 +5270,19 @@
         <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -5345,10 +5299,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5371,16 +5325,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5430,7 +5384,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5439,19 +5393,19 @@
         <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -5463,15 +5417,15 @@
         <v>20</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5494,13 +5448,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5551,7 +5505,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5572,7 +5526,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5589,14 +5543,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5615,16 +5569,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5662,19 +5616,19 @@
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5683,10 +5637,10 @@
         <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -5695,7 +5649,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5712,14 +5666,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5738,19 +5692,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5799,7 +5753,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5808,10 +5762,10 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5820,7 +5774,7 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
@@ -5837,10 +5791,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5863,16 +5817,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5898,13 +5852,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5922,7 +5876,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>92</v>
@@ -5931,19 +5885,19 @@
         <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>20</v>
@@ -5955,15 +5909,15 @@
         <v>20</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5986,17 +5940,15 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6045,7 +5997,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>92</v>
@@ -6054,19 +6006,19 @@
         <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>20</v>
@@ -6078,15 +6030,15 @@
         <v>20</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6109,19 +6061,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6170,7 +6122,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6179,11 +6131,11 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6191,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -6200,18 +6152,18 @@
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6234,19 +6186,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6271,13 +6223,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6295,7 +6247,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6304,39 +6256,39 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6359,13 +6311,13 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6416,7 +6368,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>92</v>
@@ -6425,19 +6377,19 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -6454,10 +6406,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6480,13 +6432,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6537,7 +6489,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6558,7 +6510,7 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6575,14 +6527,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6601,16 +6553,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6648,19 +6600,19 @@
         <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6669,10 +6621,10 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6681,7 +6633,7 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6698,14 +6650,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6724,19 +6676,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6785,7 +6737,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6794,10 +6746,10 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6806,7 +6758,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6823,10 +6775,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6849,17 +6801,15 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6908,7 +6858,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>92</v>
@@ -6917,39 +6867,39 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6972,13 +6922,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7029,7 +6979,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7050,7 +7000,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -7067,14 +7017,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7093,16 +7043,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7140,19 +7090,19 @@
         <v>20</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7161,10 +7111,10 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7173,7 +7123,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -7190,10 +7140,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7216,19 +7166,17 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7238,10 +7186,10 @@
         <v>20</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>20</v>
@@ -7253,13 +7201,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7277,7 +7225,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7286,11 +7234,11 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
@@ -7298,7 +7246,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7307,7 +7255,7 @@
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>20</v>
@@ -7315,10 +7263,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7341,19 +7289,17 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7366,7 +7312,7 @@
         <v>20</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>20</v>
@@ -7378,13 +7324,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7402,7 +7348,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7411,11 +7357,11 @@
         <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7423,7 +7369,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -7440,10 +7386,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7466,19 +7412,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7527,7 +7473,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7536,11 +7482,11 @@
         <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7548,7 +7494,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -7557,7 +7503,7 @@
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>20</v>
@@ -7565,10 +7511,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7582,7 +7528,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -7591,19 +7537,19 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7616,7 +7562,7 @@
         <v>20</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>20</v>
@@ -7652,7 +7598,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7661,11 +7607,11 @@
         <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7673,7 +7619,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -7682,7 +7628,7 @@
         <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>20</v>
@@ -7690,10 +7636,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7716,19 +7662,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7777,7 +7723,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7786,11 +7732,11 @@
         <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7798,7 +7744,7 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7815,10 +7761,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7841,19 +7787,19 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7902,7 +7848,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7911,11 +7857,11 @@
         <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7923,7 +7869,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7940,10 +7886,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7966,19 +7912,17 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7991,7 +7935,7 @@
         <v>20</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>20</v>
@@ -8027,7 +7971,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8036,11 +7980,11 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
@@ -8048,7 +7992,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -8065,10 +8009,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8091,17 +8035,17 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -8150,7 +8094,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8159,11 +8103,11 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8171,7 +8115,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -8188,10 +8132,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8214,16 +8158,16 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8249,13 +8193,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8273,7 +8217,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8282,39 +8226,39 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8337,16 +8281,16 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8396,7 +8340,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8405,11 +8349,11 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8417,7 +8361,7 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>20</v>
@@ -8434,10 +8378,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8460,13 +8404,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8517,7 +8461,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8538,7 +8482,7 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>20</v>
@@ -8555,14 +8499,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8581,16 +8525,16 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8628,19 +8572,19 @@
         <v>20</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8649,10 +8593,10 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8661,7 +8605,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>20</v>
@@ -8678,14 +8622,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8704,19 +8648,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8765,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8774,10 +8718,10 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8786,7 +8730,7 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>20</v>
@@ -8803,10 +8747,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8829,17 +8773,15 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8888,7 +8830,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8897,25 +8839,25 @@
         <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8926,10 +8868,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8952,16 +8894,16 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8987,13 +8929,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9011,7 +8953,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9020,19 +8962,19 @@
         <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>20</v>
@@ -9041,18 +8983,18 @@
         <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AQ57" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9075,17 +9017,15 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9134,7 +9074,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9143,39 +9083,39 @@
         <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="AQ58" t="s" s="2">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9198,17 +9138,15 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9233,13 +9171,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9257,7 +9195,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9266,39 +9204,39 @@
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9321,19 +9259,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9358,13 +9296,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9382,7 +9320,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9391,39 +9329,39 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9446,17 +9384,15 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9505,7 +9441,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9514,22 +9450,22 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9538,15 +9474,15 @@
         <v>20</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9569,16 +9505,16 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9628,7 +9564,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9637,22 +9573,22 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9661,7 +9597,7 @@
         <v>20</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-utn-consent-documentreference-id.xlsx
+++ b/output/StructureDefinition-utn-consent-documentreference-id.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
